--- a/ectatomma_wasmannia.xlsx
+++ b/ectatomma_wasmannia.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boloq\Box\Dissertation\FCAT\FCAT_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3FA618-3A45-4437-BC45-F5069AEABA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1059933D-6C0B-4A95-B1A4-68CC665A3158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11576" xr2:uid="{6B3FDF38-43C3-4EB6-934A-F6837BAAB0BF}"/>
+    <workbookView minimized="1" xWindow="2127" yWindow="2127" windowWidth="15951" windowHeight="8230" xr2:uid="{6B3FDF38-43C3-4EB6-934A-F6837BAAB0BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="47">
   <si>
     <t>Forest</t>
   </si>
@@ -167,9 +167,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Apparantly this was in bait FCAT 3 Bait A.</t>
-  </si>
-  <si>
     <t>Apparently this was FCAT 1 bait A</t>
   </si>
   <si>
@@ -177,6 +174,9 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>Apparently this was in bait FCAT 3 Bait A.</t>
   </si>
 </sst>
 </file>
@@ -566,11 +566,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC34729-58E3-4D57-B0BA-D024C8B1508C}">
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M19" sqref="M19"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -972,7 +972,7 @@
         <v>1</v>
       </c>
       <c r="O10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -1245,40 +1245,43 @@
       <c r="K18" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="L18" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="M18" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="2">
-        <v>2</v>
-      </c>
-      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M19" s="2">
-        <v>7</v>
-      </c>
-      <c r="N19" s="2">
-        <v>3</v>
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -1289,25 +1292,22 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H20" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I20" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J20" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="K20" t="s">
         <v>7</v>
       </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20" t="s">
-        <v>21</v>
+      <c r="M20" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -1318,22 +1318,25 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I21" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J21" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K21" t="s">
         <v>7</v>
       </c>
-      <c r="M21" t="s">
-        <v>8</v>
+      <c r="L21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -1344,16 +1347,16 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I22" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J22" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="K22" t="s">
         <v>7</v>
@@ -1361,98 +1364,107 @@
       <c r="L22" t="s">
         <v>26</v>
       </c>
+      <c r="M22" t="s">
+        <v>8</v>
+      </c>
       <c r="N22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" t="s">
-        <v>7</v>
-      </c>
-      <c r="L23" t="s">
+    <row r="23" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M23" t="s">
-        <v>8</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="2">
-        <v>2</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="2" t="s">
+      <c r="M23" s="2">
+        <v>2</v>
+      </c>
+      <c r="N23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" t="s">
+        <v>7</v>
+      </c>
+      <c r="L24" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" t="s">
         <v>6</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="2">
-        <v>2</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L25" s="2" t="s">
+      <c r="K25" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" t="s">
         <v>26</v>
       </c>
-      <c r="M25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N25" s="2">
-        <v>2</v>
+      <c r="M25" t="s">
+        <v>8</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -1463,7 +1475,7 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H26" t="s">
         <v>9</v>
@@ -1481,7 +1493,7 @@
         <v>26</v>
       </c>
       <c r="M26">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1495,28 +1507,22 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H27" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I27" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J27" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K27" t="s">
         <v>7</v>
       </c>
-      <c r="L27" t="s">
-        <v>26</v>
-      </c>
-      <c r="M27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
+      <c r="M27">
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -1527,28 +1533,22 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H28" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I28" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J28" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K28" t="s">
         <v>7</v>
       </c>
-      <c r="L28" t="s">
-        <v>26</v>
-      </c>
-      <c r="M28">
-        <v>23</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
+      <c r="M28" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -1559,22 +1559,28 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="H29" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J29" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K29" t="s">
         <v>7</v>
       </c>
-      <c r="M29">
-        <v>18</v>
+      <c r="L29" t="s">
+        <v>26</v>
+      </c>
+      <c r="M29" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -1585,199 +1591,221 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H30" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I30" t="s">
         <v>5</v>
       </c>
       <c r="J30" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" t="s">
+        <v>7</v>
+      </c>
+      <c r="L30" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="2">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31" s="2">
+        <v>2</v>
+      </c>
+      <c r="N31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="2">
+        <v>4</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32" s="2">
+        <v>8</v>
+      </c>
+      <c r="N32" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" t="s">
         <v>6</v>
       </c>
-      <c r="K30" t="s">
-        <v>7</v>
-      </c>
-      <c r="M30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
-        <v>45</v>
-      </c>
-      <c r="H31" t="s">
-        <v>4</v>
-      </c>
-      <c r="I31" t="s">
-        <v>5</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="K33" t="s">
+        <v>7</v>
+      </c>
+      <c r="L33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33" t="s">
+        <v>8</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="2">
+        <v>4</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34" s="3">
+        <v>24</v>
+      </c>
+      <c r="N34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" t="s">
+        <v>7</v>
+      </c>
+      <c r="L35" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35">
+        <v>4</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" t="s">
         <v>6</v>
       </c>
-      <c r="K31" t="s">
-        <v>7</v>
-      </c>
-      <c r="L31" t="s">
+      <c r="K36" t="s">
+        <v>7</v>
+      </c>
+      <c r="L36" t="s">
         <v>26</v>
       </c>
-      <c r="M31" t="s">
-        <v>8</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" t="s">
-        <v>9</v>
-      </c>
-      <c r="I32" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" t="s">
-        <v>7</v>
-      </c>
-      <c r="L32" t="s">
-        <v>25</v>
-      </c>
-      <c r="M32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="2">
-        <v>3</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="2">
-        <v>3</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N34" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" s="2">
-        <v>4</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M35" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="2">
-        <v>4</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M36" s="2">
-        <v>1</v>
-      </c>
-      <c r="N36" s="2">
-        <v>2</v>
+      <c r="M36" t="s">
+        <v>8</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
@@ -1785,121 +1813,109 @@
         <v>20</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H37" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I37" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J37" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" t="s">
+        <v>7</v>
+      </c>
+      <c r="M37">
         <v>6</v>
       </c>
-      <c r="K37" t="s">
-        <v>7</v>
-      </c>
-      <c r="L37" t="s">
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" t="s">
+        <v>4</v>
+      </c>
+      <c r="I38" t="s">
+        <v>5</v>
+      </c>
+      <c r="J38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K38" t="s">
+        <v>7</v>
+      </c>
+      <c r="L38" t="s">
+        <v>41</v>
+      </c>
+      <c r="M38" t="s">
+        <v>8</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" t="s">
+        <v>7</v>
+      </c>
+      <c r="L39" t="s">
         <v>26</v>
       </c>
-      <c r="M37" t="s">
-        <v>8</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="2">
-        <v>4</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M38" s="3">
-        <v>4</v>
-      </c>
-      <c r="N38" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="2">
-        <v>4</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M39" s="3">
-        <v>20</v>
-      </c>
-      <c r="N39" s="3"/>
+      <c r="M39">
+        <v>15</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>20</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H40" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I40" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J40" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K40" t="s">
         <v>7</v>
@@ -1907,43 +1923,47 @@
       <c r="L40" t="s">
         <v>26</v>
       </c>
-      <c r="M40">
-        <v>4</v>
+      <c r="M40" t="s">
+        <v>8</v>
       </c>
       <c r="N40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41">
-        <v>4</v>
-      </c>
-      <c r="C41" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" t="s">
-        <v>4</v>
-      </c>
-      <c r="I41" t="s">
-        <v>24</v>
-      </c>
-      <c r="J41" t="s">
-        <v>6</v>
-      </c>
-      <c r="K41" t="s">
-        <v>7</v>
-      </c>
-      <c r="L41" t="s">
+      <c r="A41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="2">
+        <v>5</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L41" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M41" t="s">
-        <v>8</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
+      <c r="M41" s="3">
+        <v>14</v>
+      </c>
+      <c r="N41" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
@@ -1954,22 +1974,22 @@
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H42" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I42" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J42" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K42" t="s">
         <v>7</v>
       </c>
-      <c r="M42">
-        <v>6</v>
+      <c r="M42" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
@@ -1980,7 +2000,7 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="H43" t="s">
         <v>4</v>
@@ -1995,7 +2015,7 @@
         <v>7</v>
       </c>
       <c r="L43" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M43" t="s">
         <v>8</v>
@@ -2012,16 +2032,16 @@
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I44" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J44" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K44" t="s">
         <v>7</v>
@@ -2029,197 +2049,7 @@
       <c r="L44" t="s">
         <v>26</v>
       </c>
-      <c r="M44">
-        <v>15</v>
-      </c>
       <c r="N44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45">
-        <v>5</v>
-      </c>
-      <c r="C45" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" t="s">
-        <v>5</v>
-      </c>
-      <c r="J45" t="s">
-        <v>6</v>
-      </c>
-      <c r="K45" t="s">
-        <v>7</v>
-      </c>
-      <c r="L45" t="s">
-        <v>26</v>
-      </c>
-      <c r="M45" t="s">
-        <v>8</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B46" s="2">
-        <v>5</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3">
-        <v>9</v>
-      </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47" s="2">
-        <v>5</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M47" s="3">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48">
-        <v>5</v>
-      </c>
-      <c r="C48" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" t="s">
-        <v>6</v>
-      </c>
-      <c r="K48" t="s">
-        <v>7</v>
-      </c>
-      <c r="M48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49">
-        <v>5</v>
-      </c>
-      <c r="C49" t="s">
-        <v>45</v>
-      </c>
-      <c r="H49" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" t="s">
-        <v>6</v>
-      </c>
-      <c r="K49" t="s">
-        <v>7</v>
-      </c>
-      <c r="L49" t="s">
-        <v>26</v>
-      </c>
-      <c r="M49" t="s">
-        <v>8</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>20</v>
-      </c>
-      <c r="B50">
-        <v>5</v>
-      </c>
-      <c r="C50" t="s">
-        <v>46</v>
-      </c>
-      <c r="H50" t="s">
-        <v>4</v>
-      </c>
-      <c r="I50" t="s">
-        <v>5</v>
-      </c>
-      <c r="J50" t="s">
-        <v>6</v>
-      </c>
-      <c r="K50" t="s">
-        <v>7</v>
-      </c>
-      <c r="L50" t="s">
-        <v>26</v>
-      </c>
-      <c r="N50">
         <v>1</v>
       </c>
     </row>
